--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2851827.025539599</v>
+        <v>2927356.695204406</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>105.9455272731768</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>116.9755825575805</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481181</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229337</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325203</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>99.29033025312222</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.67884460201057</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>312.7196087087375</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>156.218755904583</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481181</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229337</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853705</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>105.7316179494394</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.8892046551431</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>19.55317847678522</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>160.727731221216</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>9.452075920964607</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634799</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1427,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>110.6143532572828</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>122.623872902726</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>134.6460019645021</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>120.669737480326</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2005,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>30.22089263670268</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>94.16481274941243</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>32.92613146084944</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4704758913049</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>75.49545370030746</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056519</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>62.56378259042244</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.97175332133787</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,13 +2845,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.51284162387448</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>90.24925542032807</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>112.1441635494135</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>197.4939597009641</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>25.51628002730553</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>215.7053919670796</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>123.9174945832224</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>122.3137095599317</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>43.3943754724707</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>141.8703649047189</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.524362591491</v>
+        <v>1470.569074795013</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.524362591491</v>
+        <v>1470.569074795013</v>
       </c>
       <c r="D2" t="n">
-        <v>917.2586639847409</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>917.2586639847409</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642687</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.69155979125</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548713</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862883</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834946</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834946</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834946</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>2247.308246834946</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>2247.308246834946</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.124202655613</v>
+        <v>1857.168914859134</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430045</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.5651556036578</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="C4" t="n">
-        <v>290.5651556036578</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="D4" t="n">
-        <v>290.5651556036578</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="E4" t="n">
-        <v>290.5651556036578</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5651556036578</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502495</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594895</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>716.33217147713</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>716.33217147713</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>502.0437482952927</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>274.7355609638945</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>274.7355609638945</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>274.7355609638945</v>
       </c>
       <c r="W4" t="n">
-        <v>290.5651556036578</v>
+        <v>274.7355609638945</v>
       </c>
       <c r="X4" t="n">
-        <v>290.5651556036578</v>
+        <v>274.7355609638945</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.5651556036578</v>
+        <v>53.9429818203644</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1152.132006003442</v>
+        <v>2423.485734520776</v>
       </c>
       <c r="C5" t="n">
-        <v>783.1694890630304</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>783.1694890630304</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>783.1694890630304</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.69155979125</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548713</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548713</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520776</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520776</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520776</v>
       </c>
       <c r="W5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520776</v>
       </c>
       <c r="X5" t="n">
-        <v>1928.871178043375</v>
+        <v>2423.485734520776</v>
       </c>
       <c r="Y5" t="n">
-        <v>1538.731846067564</v>
+        <v>2423.485734520776</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502495</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594895</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="U7" t="n">
-        <v>621.3293701160914</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="V7" t="n">
-        <v>621.3293701160914</v>
+        <v>570.6651411204305</v>
       </c>
       <c r="W7" t="n">
-        <v>621.3293701160914</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X7" t="n">
-        <v>393.339819218074</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.339819218074</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1345.301239238533</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1242.656927206462</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>884.3912285997114</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>498.6029760014672</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>87.61707121185964</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>73.69366715045054</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>73.69366715045054</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.591670205092</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2049.829884843183</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1718.766997499613</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1718.766997499613</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>1345.301239238533</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1345.301239238533</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>211.4036268380754</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,10 +5059,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5126,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365139</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>488.658674475369</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>488.658674475369</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1375.053772676361</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="U13" t="n">
-        <v>964.135741824786</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V13" t="n">
-        <v>709.4512536188992</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W13" t="n">
-        <v>709.4512536188992</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X13" t="n">
-        <v>709.4512536188992</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y13" t="n">
-        <v>488.658674475369</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5276,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>383.6411625027488</v>
+        <v>627.6468934660855</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>627.6468934660855</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>477.5302540537498</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>477.5302540537498</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>330.6403065558394</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>786.0822064765186</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X16" t="n">
-        <v>786.0822064765186</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="Y16" t="n">
-        <v>565.2896273329885</v>
+        <v>809.2953582963253</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5494,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>2801.004654415706</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>3569.372800808168</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>3899.2354284722</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5704,19 +5706,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>933.6095876462982</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>933.6095876462982</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>933.6095876462982</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>933.6095876462982</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
     </row>
     <row r="20">
@@ -5750,52 +5752,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,22 +5834,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>618.0053231677515</v>
+        <v>3627.307389766478</v>
       </c>
       <c r="C22" t="n">
-        <v>449.0691402398446</v>
+        <v>3627.307389766478</v>
       </c>
       <c r="D22" t="n">
-        <v>449.0691402398446</v>
+        <v>3627.307389766478</v>
       </c>
       <c r="E22" t="n">
-        <v>449.0691402398446</v>
+        <v>3627.307389766478</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>3627.307389766478</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141521</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="W22" t="n">
-        <v>1020.446367141521</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="X22" t="n">
-        <v>1020.446367141521</v>
+        <v>3808.955854596717</v>
       </c>
       <c r="Y22" t="n">
-        <v>799.6537879979912</v>
+        <v>3808.955854596717</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5965,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>933.6095876462982</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>933.6095876462982</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>933.6095876462982</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y25" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6233,28 +6235,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>328.5881531307909</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4843.711387841224</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>4619.92597263073</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>4330.797333844288</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>4076.112845638401</v>
       </c>
       <c r="W28" t="n">
-        <v>731.0291971045608</v>
+        <v>4076.112845638401</v>
       </c>
       <c r="X28" t="n">
-        <v>731.0291971045608</v>
+        <v>3848.123294740384</v>
       </c>
       <c r="Y28" t="n">
-        <v>510.2366179610307</v>
+        <v>3627.330715596854</v>
       </c>
     </row>
     <row r="29">
@@ -6440,25 +6442,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823794</v>
@@ -6485,25 +6487,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6537,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>624.8682044203583</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M30" t="n">
-        <v>932.1883377003199</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4094.296631519492</v>
+        <v>454.2145238948145</v>
       </c>
       <c r="C31" t="n">
-        <v>3925.360448591585</v>
+        <v>454.2145238948145</v>
       </c>
       <c r="D31" t="n">
-        <v>3775.243809179249</v>
+        <v>454.2145238948145</v>
       </c>
       <c r="E31" t="n">
-        <v>3627.330715596856</v>
+        <v>454.2145238948145</v>
       </c>
       <c r="F31" t="n">
-        <v>3627.330715596856</v>
+        <v>307.3245763969041</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>139.1492547167248</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>139.1492547167248</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929846</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929846</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U31" t="n">
-        <v>4660.934562929846</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V31" t="n">
-        <v>4406.250074723959</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W31" t="n">
-        <v>4406.250074723959</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="X31" t="n">
-        <v>4315.089210663022</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="Y31" t="n">
-        <v>4094.296631519492</v>
+        <v>454.2145238948145</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,34 +6697,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465859</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>3446.276123502709</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>4250.68770176686</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>525.6009593486384</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="C34" t="n">
-        <v>356.6647764207315</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D34" t="n">
-        <v>356.6647764207315</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F34" t="n">
         <v>208.7516828383384</v>
@@ -6853,7 +6855,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6865,7 +6867,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U34" t="n">
-        <v>961.933912384765</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V34" t="n">
-        <v>707.2494241788781</v>
+        <v>933.2366688293938</v>
       </c>
       <c r="W34" t="n">
-        <v>707.2494241788781</v>
+        <v>933.2366688293938</v>
       </c>
       <c r="X34" t="n">
-        <v>707.2494241788781</v>
+        <v>705.2471179313765</v>
       </c>
       <c r="Y34" t="n">
-        <v>707.2494241788781</v>
+        <v>505.7582697485844</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6932,16 +6934,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6959,28 +6961,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>624.8682044203583</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M36" t="n">
-        <v>932.1883377003199</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>731.6365520183392</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C37" t="n">
-        <v>562.7003690904323</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D37" t="n">
-        <v>562.7003690904323</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T37" t="n">
-        <v>1362.067146890126</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U37" t="n">
-        <v>1362.067146890126</v>
+        <v>4571.725934227851</v>
       </c>
       <c r="V37" t="n">
-        <v>1362.067146890126</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W37" t="n">
-        <v>1362.067146890126</v>
+        <v>4027.624275985004</v>
       </c>
       <c r="X37" t="n">
-        <v>1134.077595992109</v>
+        <v>3809.740041674822</v>
       </c>
       <c r="Y37" t="n">
-        <v>913.2850168485789</v>
+        <v>3809.740041674822</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7187,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7217,7 +7219,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>410.8745301331628</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>484.0375086983735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>333.9208692860377</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>333.9208692860377</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>333.9208692860377</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>333.9208692860377</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,61 +7402,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M42" t="n">
-        <v>1564.731711769082</v>
+        <v>3959.296496892129</v>
       </c>
       <c r="N42" t="n">
-        <v>1894.594339433115</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>757.4105722479408</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="C43" t="n">
-        <v>588.4743893200339</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>438.3577499076981</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>438.3577499076981</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>291.4678024097877</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>291.4678024097877</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>141.049793957731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7576,7 +7578,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W43" t="n">
-        <v>1387.841167119728</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X43" t="n">
-        <v>1159.851616221711</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y43" t="n">
-        <v>939.0590370781805</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7627,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7667,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4093.273485435009</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3924.337302507102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576119</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>4525.994054365625</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U46" t="n">
-        <v>4525.994054365625</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V46" t="n">
-        <v>4525.994054365625</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W46" t="n">
-        <v>4236.576884328664</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X46" t="n">
-        <v>4093.273485435009</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>4093.273485435009</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747041</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747317</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,25 +9011,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>41.75994765618367</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,19 +9248,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978186</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>297.2466435761028</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>349.7653003338567</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,13 +9883,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>360.5026862907243</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>176.7176547498444</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>38.86002301949793</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,16 +11144,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>253.7371603504722</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>158.872441903933</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>392.1113620226433</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>38.00111976092957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>75.29693708087721</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>32.60081913412569</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>45.82383098305155</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>256.0164597618747</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>192.3581855871786</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>112.4949165620818</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.02309257207269866</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>176.6421896235206</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>75.26883114644286</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>104.6830385082054</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24649,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>180.9490566622654</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>68.90640384039749</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>135.4603999687091</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>174.0931888491639</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>21.09069365113069</v>
       </c>
     </row>
     <row r="35">
@@ -25321,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>196.0312810310837</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>10.00426342195752</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>24.99633378431376</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>44.93311153869614</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>67.02486999180128</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25840,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26071,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>83.8392904843183</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>769635.6044539643</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.604453964</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>769635.6044539643</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448192</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="J2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="G2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>606095.0425934487</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934485</v>
       </c>
       <c r="M2" t="n">
         <v>606095.0425934483</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934485</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145438</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.173432100491482e-10</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768961</v>
@@ -26381,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9.129322781267672e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.048715921</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.048715921</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007516</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007525</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007416</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007481</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.73165600748</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007442</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.73165600748</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007442</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007481</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7916.731656007478</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007568</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007482</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,13 +26481,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,13 +26496,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184436.6343490551</v>
+        <v>-184436.6343490545</v>
       </c>
       <c r="C6" t="n">
-        <v>405531.2448654892</v>
+        <v>405531.2448654887</v>
       </c>
       <c r="D6" t="n">
-        <v>405531.2448654892</v>
+        <v>405531.2448654891</v>
       </c>
       <c r="E6" t="n">
-        <v>-18969.0514881718</v>
+        <v>-18969.05148817175</v>
       </c>
       <c r="F6" t="n">
+        <v>506190.9849887247</v>
+      </c>
+      <c r="G6" t="n">
+        <v>506190.9849887245</v>
+      </c>
+      <c r="H6" t="n">
         <v>506190.9849887243</v>
       </c>
-      <c r="G6" t="n">
-        <v>506190.9849887242</v>
-      </c>
-      <c r="H6" t="n">
-        <v>506190.9849887241</v>
-      </c>
       <c r="I6" t="n">
-        <v>506190.9849887246</v>
+        <v>506190.9849887245</v>
       </c>
       <c r="J6" t="n">
         <v>329767.7657961316</v>
       </c>
       <c r="K6" t="n">
+        <v>506190.9849887244</v>
+      </c>
+      <c r="L6" t="n">
+        <v>506190.9849887246</v>
+      </c>
+      <c r="M6" t="n">
+        <v>371389.969754887</v>
+      </c>
+      <c r="N6" t="n">
         <v>506190.9849887245</v>
-      </c>
-      <c r="L6" t="n">
-        <v>506190.9849887245</v>
-      </c>
-      <c r="M6" t="n">
-        <v>371389.9697548872</v>
-      </c>
-      <c r="N6" t="n">
-        <v>506190.9849887243</v>
       </c>
       <c r="O6" t="n">
         <v>506190.9849887245</v>
       </c>
       <c r="P6" t="n">
-        <v>506190.9849887241</v>
+        <v>506190.9849887245</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.337298401867845e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170862</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170862</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26749,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.287272754555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.287272754555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26814,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.337298401867845e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170862</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370137</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.287272754555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.337298401867845e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27382,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>248.7375143475061</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>289.900463184131</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.813749233609997e-12</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>68.01947200592869</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853705</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>17.4439053529038</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>52.55328306227005</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>250.6572898371284</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491437</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>180.5502562925383</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.24843866868486</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>132.378137768076</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>55.72058913644182</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>157.7947451776632</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28062,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.001618506431282e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28573,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29569,7 +29571,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30049,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255446</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405364</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338301</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954664</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044135</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633787</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473546</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141101</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188906</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890686</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396467</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478005</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034976</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619147</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078603</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644435</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813572</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302231</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175834</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383791</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678002</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.6281993970116</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315606</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255446</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405364</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338301</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954664</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044135</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633787</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473546</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141101</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188906</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890686</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396467</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478005</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034976</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619147</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078603</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644435</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813572</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302231</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175834</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383791</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678002</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.6281993970116</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315606</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530449</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898687</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770682</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713855</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.31973343389</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.3752747153553</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713946</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873139</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530449</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898687</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770682</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713855</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.31973343389</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535805</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713946</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873139</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>324.1236498972918</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958061</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>546.5043485321271</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>599.023005289881</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>670.9270633411907</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>340.4953046390455</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>509.9122281478574</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>321.2237252606061</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>340.4953046390455</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>564.1615374009385</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>441.2361441450411</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>725.3059354206563</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2920339.680312695</v>
+        <v>2925278.943161726</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>303.6231458537323</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>295.9408816142891</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -788,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7.634490799661747</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.634490799661691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>22.3112479598479</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>200.2931783177761</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>14.5268783873314</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>46.91619441817154</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.19563242961156</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586834</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274081</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>55.72442649149368</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>270.8306481726722</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206848</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113155</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>228.4685141372661</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>58.43974171833481</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.964516789694</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151925</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.09631833451742</v>
+        <v>80.54581026653179</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113193</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>172.7067178467373</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>49.12199829633357</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065126</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065126</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>189.9664086064137</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1796758467007</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>256.1117638868777</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>176.8688121773847</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>186.8337028840669</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>101.9166902817493</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>204.129165153206</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1494.518401093285</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1125.555884152873</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>767.2901855461225</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>381.5019329478783</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>374.5564321986748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>360.6330281372657</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1363.553390680693</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.7689125078493</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E4" t="n">
         <v>369.8327295799424</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.4173773380891</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1386.090004781549</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1386.090004781549</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>1386.090004781549</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.090004781549</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4704,25 +4704,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>995.9506728057365</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>626.9881558653249</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>268.7224572585744</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>268.7224572585744</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2653.51713906912</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2653.51713906912</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2653.51713906912</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2653.51713906912</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V8" t="n">
-        <v>2322.454251725549</v>
+        <v>2112.324418312742</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.685596455435</v>
+        <v>1759.555763042628</v>
       </c>
       <c r="X8" t="n">
-        <v>1596.219838194355</v>
+        <v>1386.090004781548</v>
       </c>
       <c r="Y8" t="n">
-        <v>1206.080506218543</v>
+        <v>995.9506728057365</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>485.520085263587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.9089152986055</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="C13" t="n">
-        <v>653.9727323706986</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706986</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883055</v>
+        <v>321.6797126268225</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>1225.349959272375</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.349959272375</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y13" t="n">
-        <v>1004.557380128845</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155868</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805448</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5281,22 +5281,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.0432218861031</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>957.1448801289506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>702.4603919230638</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>413.0432218861031</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="X16" t="n">
-        <v>413.0432218861031</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.0432218861031</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155913</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514087</v>
@@ -5524,43 +5524,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,7 +5767,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5776,28 +5776,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610114</v>
+        <v>882.7763375151577</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404653</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655744</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655744</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X22" t="n">
-        <v>955.1031435655744</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y22" t="n">
-        <v>955.1031435655744</v>
+        <v>964.1357418247858</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,22 +6165,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1124.545030325236</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>835.416391538794</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
         <v>835.416391538794</v>
@@ -6189,10 +6189,10 @@
         <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>318.009670603816</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,61 +6214,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>146.8352715575925</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6384,16 +6384,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="29">
@@ -6442,49 +6442,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823768</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514066</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6621,16 +6621,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>1307.031009339303</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>1052.346521133416</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514066</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,7 +6724,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,40 +6916,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823768</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514066</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6961,25 +6961,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7007,37 +7007,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1240.217519157017</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>985.5330309511296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>696.115860914169</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>468.1263100161517</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7165,46 +7165,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.357857465301</v>
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028589</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.4452354807079</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C43" t="n">
-        <v>415.509052552801</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404653</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404653</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404653</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1310.195358553795</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>1055.510870347908</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W43" t="n">
-        <v>766.0937003109476</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="X43" t="n">
-        <v>766.0937003109476</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="Y43" t="n">
-        <v>766.0937003109476</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7806,16 +7806,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,31 +7824,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765193</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706325</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>531.3977182706325</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>303.4081673726151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028835</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231147</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298192</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711627</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208054</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208054</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208054</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208054</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208054</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>89.69662153143756</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>15.69235016391883</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.76883826131129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>228.0832566182562</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338488</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>104.7356618474199</v>
+        <v>99.28616991540551</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>48.8408432116519</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>96.29904972659767</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24654,16 +24654,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518767</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24891,10 +24891,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518767</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>96.27094379216368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>103.0576765518767</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>30.12558851169968</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>99.40364951451048</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>184.6063080548417</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.45548819888879</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769635.6044539638</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="G2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934489</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="J2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="I2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934483</v>
-      </c>
       <c r="L2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="N2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934489</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1.22694927995326e-10</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159209</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.7316560074</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.73165600738</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007369</v>
+        <v>7916.731656007545</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007407</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007408</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.73165600748</v>
+        <v>7916.731656007528</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.73165600741</v>
+        <v>7916.731656007543</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007479</v>
+        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184436.6343490552</v>
+        <v>-184436.6343490549</v>
       </c>
       <c r="C6" t="n">
         <v>405531.2448654895</v>
       </c>
       <c r="D6" t="n">
-        <v>405531.2448654894</v>
+        <v>405531.2448654891</v>
       </c>
       <c r="E6" t="n">
-        <v>-19943.64274789329</v>
+        <v>-19066.51061414435</v>
       </c>
       <c r="F6" t="n">
-        <v>505216.3937290034</v>
+        <v>506093.5258627522</v>
       </c>
       <c r="G6" t="n">
-        <v>505216.3937290026</v>
+        <v>506093.5258627519</v>
       </c>
       <c r="H6" t="n">
-        <v>505216.3937290026</v>
+        <v>506093.5258627525</v>
       </c>
       <c r="I6" t="n">
-        <v>505216.3937290027</v>
+        <v>506093.5258627521</v>
       </c>
       <c r="J6" t="n">
-        <v>328793.1745364097</v>
+        <v>329670.3066701594</v>
       </c>
       <c r="K6" t="n">
-        <v>505216.3937290026</v>
+        <v>506093.5258627522</v>
       </c>
       <c r="L6" t="n">
-        <v>505216.3937290027</v>
+        <v>506093.5258627523</v>
       </c>
       <c r="M6" t="n">
-        <v>370415.3784951651</v>
+        <v>371292.510628915</v>
       </c>
       <c r="N6" t="n">
-        <v>505216.3937290027</v>
+        <v>506093.5258627521</v>
       </c>
       <c r="O6" t="n">
-        <v>505216.3937290027</v>
+        <v>506093.5258627524</v>
       </c>
       <c r="P6" t="n">
-        <v>505216.3937290026</v>
+        <v>506093.5258627526</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26807,10 +26807,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26825,10 +26825,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20.29962691062485</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>53.30008710312387</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.9501625524331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>359.6191221124139</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>206.5828674239354</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>152.7829238717195</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>359.9598513235399</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.28277014520017</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>120.105142606069</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28098,19 +28098,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.233894212857884e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,16 +28140,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28326,13 +28326,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.899354237107688e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28341,13 +28341,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.501110429875553e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28815,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30273,13 +30273,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530451</v>
@@ -35193,7 +35193,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932201</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>350.315067311054</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415061</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303311</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523302</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415061</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523302</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523302</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523302</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523302</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
